--- a/documentacao/matriz de rastreabilidade.xlsx
+++ b/documentacao/matriz de rastreabilidade.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>Criar DB</t>
   </si>
@@ -138,6 +143,9 @@
   <si>
     <t>Raiz:
 SmartPark / workspace / ServidorSmartpark / WebContent /</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -182,10 +190,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,20 +496,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="84.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="83">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +526,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
@@ -533,8 +541,8 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -546,8 +554,8 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -557,8 +565,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -570,8 +578,8 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -583,8 +591,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -596,8 +604,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -609,8 +617,8 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -622,8 +630,8 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -635,8 +643,8 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -648,8 +656,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -661,8 +669,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -674,8 +682,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -687,8 +695,8 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -700,8 +708,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -715,8 +723,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -730,8 +738,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -745,8 +753,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -760,8 +768,8 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -773,8 +781,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
@@ -788,8 +796,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -801,8 +809,8 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -814,8 +822,8 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -827,8 +835,8 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -840,8 +848,8 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -855,8 +863,8 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -868,8 +876,8 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -881,8 +889,8 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -894,8 +902,8 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -909,8 +917,8 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -922,8 +930,8 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -935,8 +943,8 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -947,6 +955,11 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -954,7 +967,12 @@
     <mergeCell ref="A22:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -964,9 +982,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -976,8 +999,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>